--- a/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Bryan.xlsx
+++ b/A RENDRE/MoneyThoring/Documentation/Journal_Travail_Bryan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77BE3B-7830-4136-A60F-AC9847CE50D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAF2F1B-CF21-48E8-859E-EF733FD93770}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="14256" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,19 +639,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +652,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,10 +991,10 @@
       <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
@@ -1026,11 +1026,11 @@
       <c r="C5" s="13">
         <v>0.25</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="33">
         <f>SUM(C5:C6)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1044,8 +1044,8 @@
       <c r="C6" s="14">
         <v>0.75</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
@@ -1057,7 +1057,7 @@
       <c r="C7" s="15">
         <v>0.5</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="35">
         <f>SUM(C7:C11)</f>
         <v>12</v>
       </c>
@@ -1075,8 +1075,8 @@
       <c r="C8" s="13">
         <v>1</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1088,8 +1088,8 @@
       <c r="C9" s="13">
         <v>2</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="29"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1101,8 +1101,8 @@
       <c r="C10" s="13">
         <v>4.75</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="29"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
@@ -1114,8 +1114,8 @@
       <c r="C11" s="14">
         <v>3.75</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
@@ -1127,7 +1127,7 @@
       <c r="C12" s="15">
         <v>2</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="35">
         <f>SUM(C12:C16)</f>
         <v>7.75</v>
       </c>
@@ -1145,8 +1145,8 @@
       <c r="C13" s="13">
         <v>1.5</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1158,8 +1158,8 @@
       <c r="C14" s="13">
         <v>1</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1171,8 +1171,8 @@
       <c r="C15" s="13">
         <v>1.25</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="29"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9">
@@ -1184,8 +1184,8 @@
       <c r="C16" s="14">
         <v>2</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="30"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
@@ -1197,7 +1197,7 @@
       <c r="C17" s="15">
         <v>0.5</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="35">
         <f>SUM(C17:C19)</f>
         <v>3.5</v>
       </c>
@@ -1215,8 +1215,8 @@
       <c r="C18" s="13">
         <v>1</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9">
@@ -1228,8 +1228,8 @@
       <c r="C19" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
@@ -1241,7 +1241,7 @@
       <c r="C20" s="15">
         <v>1.5</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="35">
         <f>SUM(C20:C23)</f>
         <v>7.45</v>
       </c>
@@ -1259,8 +1259,8 @@
       <c r="C21" s="15">
         <v>1</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1272,8 +1272,8 @@
       <c r="C22" s="13">
         <v>2.5</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="29"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="30"/>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="9">
@@ -1285,8 +1285,8 @@
       <c r="C23" s="14">
         <v>2.4500000000000002</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="29"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="30"/>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
@@ -1298,7 +1298,7 @@
       <c r="C24" s="15">
         <v>1.5</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="36">
         <f>SUM(C24:C26)</f>
         <v>3.75</v>
       </c>
@@ -1316,8 +1316,8 @@
       <c r="C25" s="13">
         <v>1.25</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="29"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="9">
@@ -1329,8 +1329,8 @@
       <c r="C26" s="14">
         <v>1</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="30"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
@@ -1342,7 +1342,7 @@
       <c r="C27" s="15">
         <v>0.75</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="35">
         <f>SUM(C27:C28)</f>
         <v>2.5</v>
       </c>
@@ -1360,8 +1360,8 @@
       <c r="C28" s="14">
         <v>1.75</v>
       </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="30"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
@@ -1373,7 +1373,7 @@
       <c r="C29" s="15">
         <v>1.5</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="35">
         <f>SUM(C29:C33)</f>
         <v>11</v>
       </c>
@@ -1391,8 +1391,8 @@
       <c r="C30" s="13">
         <v>2</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="29"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1404,8 +1404,8 @@
       <c r="C31" s="13">
         <v>2</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="29"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1417,8 +1417,8 @@
       <c r="C32" s="13">
         <v>4</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="9">
@@ -1430,8 +1430,8 @@
       <c r="C33" s="14">
         <v>1.5</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="30"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="16">
@@ -1443,7 +1443,7 @@
       <c r="C34" s="19">
         <v>0.25</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="35">
         <f>SUM(C34:C35)</f>
         <v>1.25</v>
       </c>
@@ -1461,8 +1461,8 @@
       <c r="C35" s="14">
         <v>1</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="16">
@@ -1474,7 +1474,7 @@
       <c r="C36" s="19">
         <v>1.5</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="35">
         <f>SUM(C36:C37)</f>
         <v>6.5</v>
       </c>
@@ -1492,8 +1492,8 @@
       <c r="C37" s="14">
         <v>5</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="16">
@@ -1505,11 +1505,11 @@
       <c r="C38" s="19">
         <v>1.5</v>
       </c>
-      <c r="D38" s="31">
+      <c r="D38" s="35">
         <f>SUM(C38:C41)</f>
         <v>12.75</v>
       </c>
-      <c r="E38" s="31">
+      <c r="E38" s="35">
         <v>10</v>
       </c>
     </row>
@@ -1523,8 +1523,8 @@
       <c r="C39" s="13">
         <v>3.25</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
@@ -1536,8 +1536,8 @@
       <c r="C40" s="13">
         <v>3</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
@@ -1549,8 +1549,8 @@
       <c r="C41" s="14">
         <v>5</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
     </row>
     <row r="42" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
@@ -1562,7 +1562,7 @@
       <c r="C42" s="15">
         <v>3</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="35">
         <f>SUM(C42:C47)</f>
         <v>22</v>
       </c>
@@ -1580,8 +1580,8 @@
       <c r="C43" s="13">
         <v>4</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="29"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="30"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -1593,8 +1593,8 @@
       <c r="C44" s="13">
         <v>2</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="29"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="30"/>
     </row>
     <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -1606,8 +1606,8 @@
       <c r="C45" s="13">
         <v>3</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="29"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="30"/>
     </row>
     <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -1619,8 +1619,8 @@
       <c r="C46" s="13">
         <v>3</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="29"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="30"/>
     </row>
     <row r="47" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="9">
@@ -1632,8 +1632,8 @@
       <c r="C47" s="27">
         <v>7</v>
       </c>
-      <c r="D47" s="33"/>
-      <c r="E47" s="30"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="29"/>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="16">
@@ -1645,7 +1645,7 @@
       <c r="C48" s="19">
         <v>3.75</v>
       </c>
-      <c r="D48" s="31">
+      <c r="D48" s="35">
         <f>SUM(C48:C52)</f>
         <v>23</v>
       </c>
@@ -1663,8 +1663,8 @@
       <c r="C49" s="13">
         <v>4.25</v>
       </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="29"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
@@ -1676,8 +1676,8 @@
       <c r="C50" s="13">
         <v>5.5</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="29"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="30"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
@@ -1689,8 +1689,8 @@
       <c r="C51" s="13">
         <v>3.5</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="29"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="30"/>
     </row>
     <row r="52" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
@@ -1702,8 +1702,8 @@
       <c r="C52" s="14">
         <v>6</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="30"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
@@ -1717,17 +1717,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D19"/>
     <mergeCell ref="E48:E52"/>
     <mergeCell ref="D48:D52"/>
     <mergeCell ref="E27:E28"/>
@@ -1744,8 +1733,28 @@
     <mergeCell ref="D20:D23"/>
     <mergeCell ref="D24:D26"/>
     <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D17:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader xml:space="preserve">&amp;L
+________________________________________&amp;C
+________________________________________&amp;RJournal de travail - Bryan Curchod
+________________________________________
+</oddHeader>
+    <oddFooter xml:space="preserve">&amp;C&amp;K09-024&amp;P
+</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>